--- a/Results/Classification/Control vs Melancholic/Classification Summary.xlsx
+++ b/Results/Classification/Control vs Melancholic/Classification Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model.nosync/Results/Classification/Control vs Melancholic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED6E2F-0D21-1440-9B5F-5ED728DB02DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F91471A-C3B4-C341-A3C0-D1E99EE87716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16620" xr2:uid="{C10E933C-2909-FB49-BF45-6F75B4442D33}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16620" xr2:uid="{C10E933C-2909-FB49-BF45-6F75B4442D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>Melancholic</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>100 Iterations</t>
+  </si>
+  <si>
+    <t>NCDE</t>
+  </si>
+  <si>
+    <t>NODE</t>
   </si>
 </sst>
 </file>
@@ -418,63 +424,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA646F2-6674-4044-B1BE-29976C13143D}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -485,11 +481,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -499,56 +495,56 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F7">
-        <f>SUM(C4:E6)/90</f>
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f>SUM(C5:E7)/90</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
@@ -563,39 +559,191 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F14">
-        <f>SUM(C11:E13)/90</f>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>SUM(C12:E14)/90</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f>SUM(C21:E23)/90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f>SUM(C28:E30)/90</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
